--- a/src/main/resources/poi/report_debt_dueGetOut.xlsx
+++ b/src/main/resources/poi/report_debt_dueGetOut.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangyupeng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A57086A-1921-49BE-8827-9A2006936E9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AA7554-1888-4834-900C-1CC87033F54B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4176" yWindow="3888" windowWidth="17280" windowHeight="5328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,6 +194,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -504,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -539,19 +545,19 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -574,19 +580,19 @@
       <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/src/main/resources/poi/report_debt_dueGetOut.xlsx
+++ b/src/main/resources/poi/report_debt_dueGetOut.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AA7554-1888-4834-900C-1CC87033F54B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ABDFAB-0B3B-4EE8-B86B-D7C1C5640F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4176" yWindow="3888" windowWidth="17280" windowHeight="5328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -200,6 +200,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -510,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -527,13 +528,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
